--- a/Test cases Documentation and Issue report document.xlsx
+++ b/Test cases Documentation and Issue report document.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive - Institut Teknologi Sepuluh Nopember\Dokumen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive - Institut Teknologi Sepuluh Nopember\Dokumen\Cypresswork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DFC5E5-1B67-4331-8717-86936A3B8D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9A3C1D-47E6-48E0-B36F-C989F7076DAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3E737833-9F9D-4B6C-A863-7926156BE5F6}"/>
   </bookViews>
@@ -138,104 +138,105 @@
     <t>12,5</t>
   </si>
   <si>
+    <t>Input data max integer</t>
+  </si>
+  <si>
+    <t>Data should Appear</t>
+  </si>
+  <si>
+    <t>The factorial of 171 is: null</t>
+  </si>
+  <si>
+    <t>work but the word is typo</t>
+  </si>
+  <si>
+    <t>click the button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 171 </t>
+  </si>
+  <si>
+    <t>Input negative integer</t>
+  </si>
+  <si>
+    <t>Status respon code</t>
+  </si>
+  <si>
+    <t>502 Internal server error</t>
+  </si>
+  <si>
+    <t>1. Click button "-&gt;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should Respon </t>
+  </si>
+  <si>
+    <t>No respon</t>
+  </si>
+  <si>
+    <t>Input data symbol</t>
+  </si>
+  <si>
+    <t>1. Input symbol type data
+2. click on "calclate" button</t>
+  </si>
+  <si>
+    <t>Should apper with proper Respon</t>
+  </si>
+  <si>
+    <t>Calculate!</t>
+  </si>
+  <si>
+    <t>1. Input negative integer type data
+2. click on "calclate!" button</t>
+  </si>
+  <si>
+    <t>1. Input integer type data
+2. click on "calclate!" button</t>
+  </si>
+  <si>
+    <t>1. Input float type data
+2. click on "calclate!" button</t>
+  </si>
+  <si>
+    <t>1. Input string type data
+2. click on "calclate!" button</t>
+  </si>
+  <si>
+    <t>1. Input string+number type data
+2. click on "calclate!" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checking button "calclate!" </t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>TestCase Passed</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Prospace factoral calculator</t>
+  </si>
+  <si>
+    <t>Project name:</t>
+  </si>
+  <si>
+    <t>Test case Passed</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t xml:space="preserve">Web Software: 
 Chrome ver.89, Edge ver.89
 Electron ver.87
 Framework: Cypress ver.6.8.0
+windows 10 ver.19402
 </t>
-  </si>
-  <si>
-    <t>Input data max integer</t>
-  </si>
-  <si>
-    <t>Data should Appear</t>
-  </si>
-  <si>
-    <t>The factorial of 171 is: null</t>
-  </si>
-  <si>
-    <t>work but the word is typo</t>
-  </si>
-  <si>
-    <t>click the button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt; 171 </t>
-  </si>
-  <si>
-    <t>Input negative integer</t>
-  </si>
-  <si>
-    <t>Status respon code</t>
-  </si>
-  <si>
-    <t>502 Internal server error</t>
-  </si>
-  <si>
-    <t>1. Click button "-&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Should Respon </t>
-  </si>
-  <si>
-    <t>No respon</t>
-  </si>
-  <si>
-    <t>Input data symbol</t>
-  </si>
-  <si>
-    <t>1. Input symbol type data
-2. click on "calclate" button</t>
-  </si>
-  <si>
-    <t>Should apper with proper Respon</t>
-  </si>
-  <si>
-    <t>Calculate!</t>
-  </si>
-  <si>
-    <t>1. Input negative integer type data
-2. click on "calclate!" button</t>
-  </si>
-  <si>
-    <t>1. Input integer type data
-2. click on "calclate!" button</t>
-  </si>
-  <si>
-    <t>1. Input float type data
-2. click on "calclate!" button</t>
-  </si>
-  <si>
-    <t>1. Input string type data
-2. click on "calclate!" button</t>
-  </si>
-  <si>
-    <t>1. Input string+number type data
-2. click on "calclate!" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checking button "calclate!" </t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>TestCase Passed</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Prospace factoral calculator</t>
-  </si>
-  <si>
-    <t>Project name:</t>
-  </si>
-  <si>
-    <t>Test case Passed</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -713,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E0754A-833C-494C-9920-04CD84223627}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,10 +736,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -764,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>25</v>
@@ -790,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3">
         <v>5</v>
@@ -809,11 +810,11 @@
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -821,19 +822,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>8</v>
@@ -842,11 +843,11 @@
         <v>27</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -857,7 +858,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>33</v>
@@ -874,11 +875,11 @@
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -889,7 +890,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>19</v>
@@ -906,11 +907,11 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -921,7 +922,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>22</v>
@@ -938,7 +939,7 @@
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L7" s="3"/>
     </row>
@@ -953,23 +954,23 @@
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H8" s="3"/>
       <c r="J8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L8" s="3"/>
     </row>
@@ -981,30 +982,30 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3"/>
       <c r="J9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -1012,32 +1013,32 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>-12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1045,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>20</v>
@@ -1065,7 +1066,7 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="L11" s="3"/>
     </row>
@@ -1078,7 +1079,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I12" s="13">
         <v>0.5</v>
@@ -1093,7 +1094,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I13" s="13">
         <v>0.5</v>
